--- a/Ecopulper/my_graphs/CO2 Change by Activities.xlsx
+++ b/Ecopulper/my_graphs/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.233400243811801E-05</v>
+        <v>-3.901277834117423E-08</v>
       </c>
       <c r="D2">
-        <v>0.004401765980361461</v>
+        <v>-7.688954099194234E-06</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.233400243811801E-05</v>
+        <v>-3.901277834117423E-08</v>
       </c>
       <c r="G2">
-        <v>0.00011167001219059</v>
+        <v>-1.950638917058711E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.30709060136769E-09</v>
+        <v>-5.778951441826052E-07</v>
       </c>
       <c r="D3">
-        <v>1.322836240547076E-08</v>
+        <v>-2.311580576730421E-06</v>
       </c>
       <c r="E3">
-        <v>4.043486212523817E-09</v>
+        <v>-7.065760816438171E-07</v>
       </c>
       <c r="F3">
-        <v>6.130000285153869E-09</v>
+        <v>-1.071182465173237E-06</v>
       </c>
       <c r="G3">
-        <v>1.653545300683845E-08</v>
+        <v>-2.889475720913026E-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.066058092497046E-11</v>
+        <v>-3.681330774073233E-08</v>
       </c>
       <c r="D4">
-        <v>4.264232369988186E-11</v>
+        <v>-1.472532309629293E-07</v>
       </c>
       <c r="E4">
-        <v>4.875864334508151E-08</v>
+        <v>-0.0001683742301068492</v>
       </c>
       <c r="F4">
-        <v>7.88489895597877E-09</v>
+        <v>0.0001691119327089652</v>
       </c>
       <c r="G4">
-        <v>5.330290375749058E-11</v>
+        <v>-1.840665387053964E-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07583679588196901</v>
+        <v>-9.538684480503434E-06</v>
       </c>
       <c r="D5">
-        <v>0.0001273762178408688</v>
+        <v>-1.602126653565961E-08</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.184405446021721E-05</v>
+        <v>-4.005316633914902E-09</v>
       </c>
       <c r="G5">
-        <v>0.000159220272300864</v>
+        <v>-2.002658305855221E-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.483613017161378E-08</v>
+        <v>-6.553972978218248E-08</v>
       </c>
       <c r="D6">
-        <v>2.924024627759536E-06</v>
+        <v>-1.291710044881711E-05</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.483613017161378E-08</v>
+        <v>-6.553972978218248E-08</v>
       </c>
       <c r="G6">
-        <v>7.418065084419112E-08</v>
+        <v>-3.276986488831568E-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.936971111282659E-08</v>
+        <v>-6.826359477685173E-10</v>
       </c>
       <c r="D7">
-        <v>7.747884445130637E-08</v>
+        <v>-2.730543791074069E-09</v>
       </c>
       <c r="E7">
-        <v>8.859188142196217E-05</v>
+        <v>-3.122194470961404E-06</v>
       </c>
       <c r="F7">
-        <v>1.432644531007554E-05</v>
+        <v>-5.048989422107297E-07</v>
       </c>
       <c r="G7">
-        <v>9.684855556413297E-08</v>
+        <v>-3.413179738842587E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003331653041414029</v>
+        <v>-1.534790112600604E-05</v>
       </c>
       <c r="C8">
-        <v>0.0004876032706917499</v>
+        <v>-2.7481300790555E-08</v>
       </c>
       <c r="D8">
-        <v>0.08781046948865878</v>
+        <v>-2.454641276017355E-06</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0004876032706917499</v>
+        <v>-2.7481300790555E-08</v>
       </c>
       <c r="G8">
-        <v>0.00243801635345875</v>
+        <v>-1.374065021764181E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.34695324246481E-05</v>
+        <v>-1.897388912652787E-09</v>
       </c>
       <c r="D9">
-        <v>0.01160621631879621</v>
+        <v>-1.634912223380525E-06</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.34695324246481E-05</v>
+        <v>-1.897388912652787E-09</v>
       </c>
       <c r="G9">
-        <v>6.734766212357357E-05</v>
+        <v>-9.486944563263933E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.998540645966386E-05</v>
+        <v>-3.314942844667712E-06</v>
       </c>
       <c r="D10">
-        <v>0.003533529941023517</v>
+        <v>-1.328413287637886E-05</v>
       </c>
       <c r="E10">
-        <v>1.507383637999737E-05</v>
+        <v>-3.177190836822774E-05</v>
       </c>
       <c r="F10">
-        <v>5.424666913711462E-05</v>
+        <v>-2.547438076305752E-05</v>
       </c>
       <c r="G10">
-        <v>0.0001999270322983193</v>
+        <v>-1.657471422333856E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.764378329611077E-06</v>
+        <v>4.557776378533163E-08</v>
       </c>
       <c r="D11">
-        <v>0.00157231138109637</v>
+        <v>-5.692725153494393E-06</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0007004048203498314</v>
+        <v>-2.681588512132294E-06</v>
       </c>
       <c r="G11">
-        <v>0.01794116937071522</v>
+        <v>-0.0001187423149531242</v>
       </c>
     </row>
   </sheetData>
